--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H2">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I2">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J2">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N2">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O2">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P2">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q2">
-        <v>8.715899392009332</v>
+        <v>25.85614258063133</v>
       </c>
       <c r="R2">
-        <v>78.44309452808399</v>
+        <v>232.705283225682</v>
       </c>
       <c r="S2">
-        <v>0.002388698369756672</v>
+        <v>0.005999768654607609</v>
       </c>
       <c r="T2">
-        <v>0.002388698369756672</v>
+        <v>0.00599976865460761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H3">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I3">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J3">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N3">
         <v>133.658642</v>
       </c>
       <c r="O3">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P3">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q3">
-        <v>2.247930444996889</v>
+        <v>5.808047182348665</v>
       </c>
       <c r="R3">
-        <v>20.231374004972</v>
+        <v>52.27242464113799</v>
       </c>
       <c r="S3">
-        <v>0.0006160727135300909</v>
+        <v>0.0013477238269579</v>
       </c>
       <c r="T3">
-        <v>0.000616072713530091</v>
+        <v>0.0013477238269579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H4">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I4">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J4">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N4">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O4">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P4">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q4">
-        <v>0.4130001800604445</v>
+        <v>0.6367094915553332</v>
       </c>
       <c r="R4">
-        <v>3.717001620544</v>
+        <v>5.730385423997999</v>
       </c>
       <c r="S4">
-        <v>0.0001131877288216568</v>
+        <v>0.0001477447626849976</v>
       </c>
       <c r="T4">
-        <v>0.0001131877288216568</v>
+        <v>0.0001477447626849976</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H5">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I5">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J5">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N5">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O5">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P5">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q5">
-        <v>0.4324989127222222</v>
+        <v>0.9063231628976665</v>
       </c>
       <c r="R5">
-        <v>3.8924902145</v>
+        <v>8.156908466078999</v>
       </c>
       <c r="S5">
-        <v>0.0001185315939612901</v>
+        <v>0.0002103070590186029</v>
       </c>
       <c r="T5">
-        <v>0.0001185315939612901</v>
+        <v>0.000210307059018603</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H6">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I6">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J6">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N6">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O6">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P6">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q6">
-        <v>0.1210409823726667</v>
+        <v>0.3372807157546666</v>
       </c>
       <c r="R6">
-        <v>1.089368841354</v>
+        <v>3.035526441792</v>
       </c>
       <c r="S6">
-        <v>3.317275524456E-05</v>
+        <v>7.826404344259526E-05</v>
       </c>
       <c r="T6">
-        <v>3.317275524456001E-05</v>
+        <v>7.826404344259527E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H7">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I7">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J7">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N7">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O7">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P7">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q7">
-        <v>0.3862155122624444</v>
+        <v>1.223378667563</v>
       </c>
       <c r="R7">
-        <v>3.475939610362</v>
+        <v>11.010408008067</v>
       </c>
       <c r="S7">
-        <v>0.0001058470644305311</v>
+        <v>0.0002838779589596805</v>
       </c>
       <c r="T7">
-        <v>0.0001058470644305311</v>
+        <v>0.0002838779589596806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.330513</v>
       </c>
       <c r="I8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N8">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O8">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P8">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q8">
-        <v>997.9190024173846</v>
+        <v>1145.775552683621</v>
       </c>
       <c r="R8">
-        <v>8981.271021756462</v>
+        <v>10311.97997415259</v>
       </c>
       <c r="S8">
-        <v>0.2734918551732014</v>
+        <v>0.2658706040458045</v>
       </c>
       <c r="T8">
-        <v>0.2734918551732015</v>
+        <v>0.2658706040458046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.330513</v>
       </c>
       <c r="I9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N9">
         <v>133.658642</v>
       </c>
       <c r="O9">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P9">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q9">
         <v>257.3747591937051</v>
@@ -1013,10 +1013,10 @@
         <v>2316.372832743346</v>
       </c>
       <c r="S9">
-        <v>0.07053668704186219</v>
+        <v>0.05972232740758147</v>
       </c>
       <c r="T9">
-        <v>0.07053668704186222</v>
+        <v>0.05972232740758149</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>17.330513</v>
       </c>
       <c r="I10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N10">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O10">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P10">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q10">
-        <v>47.28608134944356</v>
+        <v>28.21481074799622</v>
       </c>
       <c r="R10">
-        <v>425.574732144992</v>
+        <v>253.933296731966</v>
       </c>
       <c r="S10">
-        <v>0.01295932643912237</v>
+        <v>0.006547083989563156</v>
       </c>
       <c r="T10">
-        <v>0.01295932643912238</v>
+        <v>0.006547083989563157</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.330513</v>
       </c>
       <c r="I11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N11">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O11">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P11">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q11">
-        <v>49.51857107552777</v>
+        <v>40.16232969170478</v>
       </c>
       <c r="R11">
-        <v>445.66713967975</v>
+        <v>361.460967225343</v>
       </c>
       <c r="S11">
-        <v>0.01357116743559887</v>
+        <v>0.009319436804189495</v>
       </c>
       <c r="T11">
-        <v>0.01357116743559888</v>
+        <v>0.009319436804189497</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.330513</v>
       </c>
       <c r="I12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N12">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O12">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P12">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q12">
-        <v>13.85847758771633</v>
+        <v>14.94608088960711</v>
       </c>
       <c r="R12">
-        <v>124.726298289447</v>
+        <v>134.514728006464</v>
       </c>
       <c r="S12">
-        <v>0.003798084550108116</v>
+        <v>0.003468151807681786</v>
       </c>
       <c r="T12">
-        <v>0.003798084550108118</v>
+        <v>0.003468151807681786</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>17.330513</v>
       </c>
       <c r="I13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N13">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O13">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P13">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q13">
-        <v>44.21939508255455</v>
+        <v>54.21216117590432</v>
       </c>
       <c r="R13">
-        <v>397.974555742991</v>
+        <v>487.9094505831389</v>
       </c>
       <c r="S13">
-        <v>0.01211886372187385</v>
+        <v>0.01257961911013659</v>
       </c>
       <c r="T13">
-        <v>0.01211886372187385</v>
+        <v>0.01257961911013659</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,10 +1293,10 @@
         <v>1.88887</v>
       </c>
       <c r="I14">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J14">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N14">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O14">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P14">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q14">
-        <v>108.7641933101533</v>
+        <v>124.8792270717844</v>
       </c>
       <c r="R14">
-        <v>978.8777397913799</v>
+        <v>1123.91304364606</v>
       </c>
       <c r="S14">
-        <v>0.02980815169643305</v>
+        <v>0.02897750388946934</v>
       </c>
       <c r="T14">
-        <v>0.02980815169643305</v>
+        <v>0.02897750388946934</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>1.88887</v>
       </c>
       <c r="I15">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J15">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N15">
         <v>133.658642</v>
       </c>
       <c r="O15">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P15">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q15">
-        <v>28.05153323494889</v>
+        <v>28.05153323494888</v>
       </c>
       <c r="R15">
         <v>252.46379911454</v>
       </c>
       <c r="S15">
-        <v>0.007687864291885778</v>
+        <v>0.006509196385032482</v>
       </c>
       <c r="T15">
-        <v>0.007687864291885779</v>
+        <v>0.006509196385032483</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,10 +1417,10 @@
         <v>1.88887</v>
       </c>
       <c r="I16">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J16">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N16">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O16">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P16">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q16">
-        <v>5.153757449564445</v>
+        <v>3.075160532037777</v>
       </c>
       <c r="R16">
-        <v>46.38381704608</v>
+        <v>27.67644478834</v>
       </c>
       <c r="S16">
-        <v>0.001412449991010946</v>
+        <v>0.0007135732528729045</v>
       </c>
       <c r="T16">
-        <v>0.001412449991010946</v>
+        <v>0.0007135732528729046</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>1.88887</v>
       </c>
       <c r="I17">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J17">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N17">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O17">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P17">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q17">
-        <v>5.397078744722222</v>
+        <v>4.377332608952222</v>
       </c>
       <c r="R17">
-        <v>48.5737087025</v>
+        <v>39.39599348057</v>
       </c>
       <c r="S17">
-        <v>0.001479135155092042</v>
+        <v>0.001015734767708804</v>
       </c>
       <c r="T17">
-        <v>0.001479135155092042</v>
+        <v>0.001015734767708804</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>1.88887</v>
       </c>
       <c r="I18">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J18">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N18">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O18">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P18">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q18">
-        <v>1.510449376836666</v>
+        <v>1.628988351928889</v>
       </c>
       <c r="R18">
-        <v>13.59404439153</v>
+        <v>14.66089516736</v>
       </c>
       <c r="S18">
-        <v>0.0004139570458279405</v>
+        <v>0.0003779973452012583</v>
       </c>
       <c r="T18">
-        <v>0.0004139570458279406</v>
+        <v>0.0003779973452012583</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,10 +1603,10 @@
         <v>1.88887</v>
       </c>
       <c r="I19">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J19">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N19">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O19">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P19">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q19">
-        <v>4.819516236454444</v>
+        <v>5.908637838956666</v>
       </c>
       <c r="R19">
-        <v>43.37564612809</v>
+        <v>53.17774055061</v>
       </c>
       <c r="S19">
-        <v>0.00132084711620111</v>
+        <v>0.001371065308255082</v>
       </c>
       <c r="T19">
-        <v>0.001320847116201111</v>
+        <v>0.001371065308255082</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H20">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I20">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J20">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N20">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O20">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P20">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q20">
-        <v>142.0806879299427</v>
+        <v>183.2245166714987</v>
       </c>
       <c r="R20">
-        <v>1278.726191369484</v>
+        <v>1649.020650043488</v>
       </c>
       <c r="S20">
-        <v>0.03893894277202289</v>
+        <v>0.04251619159560054</v>
       </c>
       <c r="T20">
-        <v>0.03893894277202289</v>
+        <v>0.04251619159560054</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H21">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I21">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J21">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N21">
         <v>133.658642</v>
       </c>
       <c r="O21">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P21">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q21">
-        <v>36.64423941568578</v>
+        <v>41.15759473682133</v>
       </c>
       <c r="R21">
-        <v>329.798154741172</v>
+        <v>370.418352631392</v>
       </c>
       <c r="S21">
-        <v>0.01004280006185827</v>
+        <v>0.009550382313640315</v>
       </c>
       <c r="T21">
-        <v>0.01004280006185827</v>
+        <v>0.009550382313640316</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H22">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I22">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J22">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N22">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O22">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P22">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q22">
-        <v>6.73244917810489</v>
+        <v>4.511917757514667</v>
       </c>
       <c r="R22">
-        <v>60.59204260294401</v>
+        <v>40.607259817632</v>
       </c>
       <c r="S22">
-        <v>0.00184510968437204</v>
+        <v>0.001046964474661517</v>
       </c>
       <c r="T22">
-        <v>0.00184510968437204</v>
+        <v>0.001046964474661517</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H23">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I23">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J23">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N23">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O23">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P23">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q23">
-        <v>7.050304309944444</v>
+        <v>6.422482508837334</v>
       </c>
       <c r="R23">
-        <v>63.4527387895</v>
+        <v>57.802342579536</v>
       </c>
       <c r="S23">
-        <v>0.001932221754061603</v>
+        <v>0.001490299998196676</v>
       </c>
       <c r="T23">
-        <v>0.001932221754061603</v>
+        <v>0.001490299998196676</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H24">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I24">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J24">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N24">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O24">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P24">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q24">
-        <v>1.973128104139333</v>
+        <v>2.390074077525334</v>
       </c>
       <c r="R24">
-        <v>17.758152937254</v>
+        <v>21.510666697728</v>
       </c>
       <c r="S24">
-        <v>0.0005407597855018529</v>
+        <v>0.0005546028951460305</v>
       </c>
       <c r="T24">
-        <v>0.000540759785501853</v>
+        <v>0.0005546028951460305</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H25">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I25">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J25">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N25">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O25">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P25">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q25">
-        <v>6.295823667006888</v>
+        <v>8.669234568592</v>
       </c>
       <c r="R25">
-        <v>56.662413003062</v>
+        <v>78.023111117328</v>
       </c>
       <c r="S25">
-        <v>0.001725447145872553</v>
+        <v>0.002011645846315912</v>
       </c>
       <c r="T25">
-        <v>0.001725447145872554</v>
+        <v>0.002011645846315912</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H26">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I26">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J26">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N26">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O26">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P26">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q26">
-        <v>1263.780594163421</v>
+        <v>1683.14947036492</v>
       </c>
       <c r="R26">
-        <v>11374.02534747078</v>
+        <v>15148.34523328428</v>
       </c>
       <c r="S26">
-        <v>0.3463544620278527</v>
+        <v>0.3905651201382053</v>
       </c>
       <c r="T26">
-        <v>0.3463544620278527</v>
+        <v>0.3905651201382054</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H27">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I27">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J27">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N27">
         <v>133.658642</v>
       </c>
       <c r="O27">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P27">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q27">
-        <v>325.9435137606932</v>
+        <v>378.0846856153871</v>
       </c>
       <c r="R27">
-        <v>2933.491623846238</v>
+        <v>3402.762170538484</v>
       </c>
       <c r="S27">
-        <v>0.08932878925458061</v>
+        <v>0.08773236914471653</v>
       </c>
       <c r="T27">
-        <v>0.08932878925458063</v>
+        <v>0.08773236914471655</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H28">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I28">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J28">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N28">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O28">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P28">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q28">
-        <v>59.88385013081956</v>
+        <v>41.44768463221822</v>
       </c>
       <c r="R28">
-        <v>538.954651177376</v>
+        <v>373.029161689964</v>
       </c>
       <c r="S28">
-        <v>0.01641189838806349</v>
+        <v>0.009617695999585271</v>
       </c>
       <c r="T28">
-        <v>0.01641189838806349</v>
+        <v>0.009617695999585273</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H29">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I29">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J29">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N29">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O29">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P29">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q29">
-        <v>62.71111084602778</v>
+        <v>58.99864401093578</v>
       </c>
       <c r="R29">
-        <v>564.39999761425</v>
+        <v>530.987796098422</v>
       </c>
       <c r="S29">
-        <v>0.01718674361717278</v>
+        <v>0.01369029482635697</v>
       </c>
       <c r="T29">
-        <v>0.01718674361717278</v>
+        <v>0.01369029482635698</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H30">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I30">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J30">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N30">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O30">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P30">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q30">
-        <v>17.55059779158233</v>
+        <v>21.95586044269511</v>
       </c>
       <c r="R30">
-        <v>157.955380124241</v>
+        <v>197.602743984256</v>
       </c>
       <c r="S30">
-        <v>0.004809955054258946</v>
+        <v>0.005094730695355131</v>
       </c>
       <c r="T30">
-        <v>0.004809955054258946</v>
+        <v>0.005094730695355132</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H31">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I31">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J31">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N31">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O31">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P31">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q31">
-        <v>56.00014956685255</v>
+        <v>79.63791002246732</v>
       </c>
       <c r="R31">
-        <v>504.0013461016729</v>
+        <v>716.7411902022059</v>
       </c>
       <c r="S31">
-        <v>0.01534752295317996</v>
+        <v>0.01847951738281271</v>
       </c>
       <c r="T31">
-        <v>0.01534752295317996</v>
+        <v>0.01847951738281271</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H32">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N32">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O32">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P32">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q32">
-        <v>60.83797506987201</v>
+        <v>42.01691761790443</v>
       </c>
       <c r="R32">
-        <v>547.5417756288481</v>
+        <v>378.1522585611399</v>
       </c>
       <c r="S32">
-        <v>0.01667338794685168</v>
+        <v>0.009749783228530521</v>
       </c>
       <c r="T32">
-        <v>0.01667338794685168</v>
+        <v>0.009749783228530524</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H33">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N33">
         <v>133.658642</v>
       </c>
       <c r="O33">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P33">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q33">
-        <v>15.69081172470934</v>
+        <v>9.438230750028886</v>
       </c>
       <c r="R33">
-        <v>141.217305522384</v>
+        <v>84.94407675025998</v>
       </c>
       <c r="S33">
-        <v>0.004300258034338257</v>
+        <v>0.002190086971882497</v>
       </c>
       <c r="T33">
-        <v>0.004300258034338257</v>
+        <v>0.002190086971882498</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H34">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N34">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O34">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P34">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q34">
-        <v>2.882788514218667</v>
+        <v>1.034669814717778</v>
       </c>
       <c r="R34">
-        <v>25.94509662796801</v>
+        <v>9.312028332459999</v>
       </c>
       <c r="S34">
-        <v>0.0007900632986402436</v>
+        <v>0.0002400891588083441</v>
       </c>
       <c r="T34">
-        <v>0.0007900632986402437</v>
+        <v>0.0002400891588083441</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H35">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N35">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O35">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P35">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q35">
-        <v>3.018891899333334</v>
+        <v>1.472799183092222</v>
       </c>
       <c r="R35">
-        <v>27.17002709400001</v>
+        <v>13.25519264783</v>
       </c>
       <c r="S35">
-        <v>0.0008273640887847268</v>
+        <v>0.0003417545500336054</v>
       </c>
       <c r="T35">
-        <v>0.000827364088784727</v>
+        <v>0.0003417545500336055</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H36">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N36">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O36">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P36">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q36">
-        <v>0.8448799070320001</v>
+        <v>0.5480901106488888</v>
       </c>
       <c r="R36">
-        <v>7.603919163288</v>
+        <v>4.93281099584</v>
       </c>
       <c r="S36">
-        <v>0.0002315496273875927</v>
+        <v>0.0001271811468209859</v>
       </c>
       <c r="T36">
-        <v>0.0002315496273875928</v>
+        <v>0.0001271811468209859</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H37">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N37">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O37">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P37">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q37">
-        <v>2.695828468162667</v>
+        <v>1.988022789176666</v>
       </c>
       <c r="R37">
-        <v>24.262456213464</v>
+        <v>17.89220510259</v>
       </c>
       <c r="S37">
-        <v>0.000738824621237309</v>
+        <v>0.0004613092141626221</v>
       </c>
       <c r="T37">
-        <v>0.0007388246212373092</v>
+        <v>0.0004613092141626222</v>
       </c>
     </row>
   </sheetData>
